--- a/3_bus_test.xlsx
+++ b/3_bus_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Google Drive\School Stuff\454\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Documents\GitHub\EE454-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51A6956-8198-4405-8265-E8B5C177347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4112137A-AAAD-41B8-B246-E2404334CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BusData" sheetId="1" r:id="rId1"/>
@@ -441,12 +441,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,44 +486,44 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23.7</v>
+        <v>57.8</v>
       </c>
       <c r="C3">
-        <v>15.3</v>
+        <v>-3.9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.0449999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>57.8</v>
+        <v>23.7</v>
       </c>
       <c r="C4">
-        <v>-3.9</v>
+        <v>15.3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1.0449999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -540,14 +540,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -567,7 +567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -587,7 +587,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -607,7 +607,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
